--- a/docs/source/recursos/pec_porcino/tabla_def_por_18feb21.xlsx
+++ b/docs/source/recursos/pec_porcino/tabla_def_por_18feb21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox (LANCIS)\FOMIX\fmx_estudio_tecnico\diagnostico\talleres\sphinx\docs\source\recursos\pec_porcino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B931ED2-8CA8-4D83-9C96-38113FD233CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7AFFAF3-BD60-4E75-A057-043F11EB5949}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EC4A73D6-3FAA-4DB8-965E-4E6FB890571C}"/>
   </bookViews>
@@ -129,21 +129,6 @@
   </si>
   <si>
     <r>
-      <t>Distanica a redes eléctricas:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>Puerto Progreso</t>
     </r>
     <r>
@@ -189,6 +174,21 @@
   </si>
   <si>
     <t>Peso</t>
+  </si>
+  <si>
+    <r>
+      <t>Distancia a redes eléctricas:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -584,8 +584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0191307-F977-47E2-8681-ABE9B769339C}">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,7 +619,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="6"/>
     </row>
@@ -631,7 +631,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -680,15 +680,15 @@
         <v>4</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="C14" s="6">
         <v>0.83299999999999996</v>
@@ -721,7 +721,7 @@
         <v>4</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -737,7 +737,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>19</v>
@@ -748,7 +748,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>18</v>
@@ -759,7 +759,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>17</v>
@@ -784,10 +784,10 @@
     </row>
     <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -807,7 +807,7 @@
         <v>4</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -845,7 +845,7 @@
         <v>4</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">

--- a/docs/source/recursos/pec_porcino/tabla_def_por_18feb21.xlsx
+++ b/docs/source/recursos/pec_porcino/tabla_def_por_18feb21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox (LANCIS)\FOMIX\fmx_estudio_tecnico\diagnostico\talleres\sphinx\docs\source\recursos\pec_porcino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7AFFAF3-BD60-4E75-A057-043F11EB5949}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B85FB2-897B-4E41-B498-005654299DFF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EC4A73D6-3FAA-4DB8-965E-4E6FB890571C}"/>
   </bookViews>
@@ -249,7 +249,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -267,6 +267,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -584,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0191307-F977-47E2-8681-ABE9B769339C}">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -690,7 +691,7 @@
       <c r="B14" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="9">
         <v>0.83299999999999996</v>
       </c>
     </row>
